--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I624"/>
+  <dimension ref="A1:I625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22222,6 +22222,41 @@
         <v>94500</v>
       </c>
     </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E625" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F625" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G625" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H625" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I625" t="n">
+        <v>111700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I625"/>
+  <dimension ref="A1:I626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22257,6 +22257,41 @@
         <v>111700</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E626" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F626" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G626" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H626" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I626" t="n">
+        <v>32000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I626"/>
+  <dimension ref="A1:I627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22292,6 +22292,41 @@
         <v>32000</v>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E627" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F627" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G627" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H627" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I627" t="n">
+        <v>1093400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I627"/>
+  <dimension ref="A1:I628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22327,6 +22327,41 @@
         <v>1093400</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E628" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F628" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G628" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H628" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I628" t="n">
+        <v>487400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I628"/>
+  <dimension ref="A1:I629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22362,6 +22362,41 @@
         <v>487400</v>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E629" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F629" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G629" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H629" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I629" t="n">
+        <v>135000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I629"/>
+  <dimension ref="A1:I630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22397,6 +22397,41 @@
         <v>135000</v>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E630" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F630" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G630" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H630" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I630" t="n">
+        <v>161600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I630"/>
+  <dimension ref="A1:I631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22432,6 +22432,41 @@
         <v>161600</v>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E631" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F631" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G631" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H631" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I631" t="n">
+        <v>1354000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I631"/>
+  <dimension ref="A1:I632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22467,6 +22467,41 @@
         <v>1354000</v>
       </c>
     </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E632" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F632" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G632" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H632" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I632" t="n">
+        <v>560700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I632"/>
+  <dimension ref="A1:I633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22502,6 +22502,41 @@
         <v>560700</v>
       </c>
     </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E633" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F633" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G633" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H633" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I633" t="n">
+        <v>349000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I633"/>
+  <dimension ref="A1:I634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22537,6 +22537,41 @@
         <v>349000</v>
       </c>
     </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E634" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F634" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G634" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I634" t="n">
+        <v>679600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I634"/>
+  <dimension ref="A1:I635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22572,6 +22572,41 @@
         <v>679600</v>
       </c>
     </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E635" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F635" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G635" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H635" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I635" t="n">
+        <v>368300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I635"/>
+  <dimension ref="A1:I636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22607,6 +22607,41 @@
         <v>368300</v>
       </c>
     </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E636" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F636" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G636" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H636" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I636" t="n">
+        <v>124200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I636"/>
+  <dimension ref="A1:I638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22642,6 +22642,76 @@
         <v>124200</v>
       </c>
     </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E637" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F637" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G637" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H637" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I637" t="n">
+        <v>163500</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E638" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F638" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G638" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H638" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I638" t="n">
+        <v>298600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I638"/>
+  <dimension ref="A1:I640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22712,6 +22712,76 @@
         <v>298600</v>
       </c>
     </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E639" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F639" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G639" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I639" t="n">
+        <v>743000</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E640" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F640" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G640" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I640" t="n">
+        <v>175000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I640"/>
+  <dimension ref="A1:I641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22782,6 +22782,41 @@
         <v>175000</v>
       </c>
     </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E641" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F641" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G641" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I641" t="n">
+        <v>160400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I641"/>
+  <dimension ref="A1:I642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22817,6 +22817,41 @@
         <v>160400</v>
       </c>
     </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E642" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F642" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G642" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H642" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I642" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I642"/>
+  <dimension ref="A1:I643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22852,6 +22852,41 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E643" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F643" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G643" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I643" t="n">
+        <v>362200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I643"/>
+  <dimension ref="A1:I644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22887,6 +22887,41 @@
         <v>362200</v>
       </c>
     </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E644" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F644" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G644" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H644" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I644" t="n">
+        <v>975100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I644"/>
+  <dimension ref="A1:I646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22922,6 +22922,76 @@
         <v>975100</v>
       </c>
     </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E645" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F645" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G645" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H645" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I645" t="n">
+        <v>474900</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E646" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F646" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G646" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H646" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I646" t="n">
+        <v>149200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I646"/>
+  <dimension ref="A1:I647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22992,6 +22992,41 @@
         <v>149200</v>
       </c>
     </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E647" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F647" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G647" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H647" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I647" t="n">
+        <v>418600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I647"/>
+  <dimension ref="A1:I648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23027,6 +23027,41 @@
         <v>418600</v>
       </c>
     </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E648" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F648" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G648" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I648" t="n">
+        <v>432200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I648"/>
+  <dimension ref="A1:I657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20509,11 +20509,11 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -20527,28 +20527,28 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>0.405</v>
+        <v>0.395</v>
       </c>
       <c r="F576" t="n">
         <v>0.405</v>
       </c>
       <c r="G576" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="H576" t="n">
-        <v>0.4</v>
+        <v>0.405</v>
       </c>
       <c r="I576" t="n">
-        <v>323000</v>
+        <v>908500</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -20562,28 +20562,28 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>0.395</v>
+        <v>0.415</v>
       </c>
       <c r="F577" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="G577" t="n">
-        <v>0.395</v>
+        <v>0.415</v>
       </c>
       <c r="H577" t="n">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="I577" t="n">
-        <v>80200</v>
+        <v>1774300</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -20597,28 +20597,28 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>0.395</v>
+        <v>0.425</v>
       </c>
       <c r="F578" t="n">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="G578" t="n">
-        <v>0.395</v>
+        <v>0.415</v>
       </c>
       <c r="H578" t="n">
-        <v>0.4</v>
+        <v>0.415</v>
       </c>
       <c r="I578" t="n">
-        <v>130000</v>
+        <v>328900</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -20632,28 +20632,28 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>0.4</v>
+        <v>0.415</v>
       </c>
       <c r="F579" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="G579" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="H579" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="I579" t="n">
-        <v>177000</v>
+        <v>833200</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20667,28 +20667,28 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>0.39</v>
+        <v>0.425</v>
       </c>
       <c r="F580" t="n">
-        <v>0.39</v>
+        <v>0.425</v>
       </c>
       <c r="G580" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="H580" t="n">
-        <v>0.39</v>
+        <v>0.415</v>
       </c>
       <c r="I580" t="n">
-        <v>66000</v>
+        <v>815200</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -20702,28 +20702,28 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>0.39</v>
+        <v>0.415</v>
       </c>
       <c r="F581" t="n">
-        <v>0.41</v>
+        <v>0.415</v>
       </c>
       <c r="G581" t="n">
-        <v>0.39</v>
+        <v>0.395</v>
       </c>
       <c r="H581" t="n">
-        <v>0.395</v>
+        <v>0.4</v>
       </c>
       <c r="I581" t="n">
-        <v>93000</v>
+        <v>552300</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -20743,22 +20743,22 @@
         <v>0.4</v>
       </c>
       <c r="G582" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="H582" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="I582" t="n">
-        <v>299300</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20772,28 +20772,28 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="F583" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="G583" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="H583" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="I583" t="n">
-        <v>124200</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20807,28 +20807,28 @@
         </is>
       </c>
       <c r="E584" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F584" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G584" t="n">
         <v>0.395</v>
       </c>
-      <c r="F584" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G584" t="n">
-        <v>0.39</v>
-      </c>
       <c r="H584" t="n">
-        <v>0.39</v>
+        <v>0.405</v>
       </c>
       <c r="I584" t="n">
-        <v>140000</v>
+        <v>688900</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -20842,28 +20842,28 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>0.39</v>
+        <v>0.405</v>
       </c>
       <c r="F585" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G585" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H585" t="n">
         <v>0.4</v>
       </c>
-      <c r="G585" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="H585" t="n">
-        <v>0.395</v>
-      </c>
       <c r="I585" t="n">
-        <v>135600</v>
+        <v>323000</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20880,25 +20880,25 @@
         <v>0.395</v>
       </c>
       <c r="F586" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="G586" t="n">
         <v>0.395</v>
       </c>
       <c r="H586" t="n">
-        <v>0.405</v>
+        <v>0.4</v>
       </c>
       <c r="I586" t="n">
-        <v>699200</v>
+        <v>80200</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -20912,10 +20912,10 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>0.405</v>
+        <v>0.395</v>
       </c>
       <c r="F587" t="n">
-        <v>0.405</v>
+        <v>0.4</v>
       </c>
       <c r="G587" t="n">
         <v>0.395</v>
@@ -20924,16 +20924,16 @@
         <v>0.4</v>
       </c>
       <c r="I587" t="n">
-        <v>103900</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -20947,28 +20947,28 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>0.395</v>
+        <v>0.4</v>
       </c>
       <c r="F588" t="n">
-        <v>0.395</v>
+        <v>0.4</v>
       </c>
       <c r="G588" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="H588" t="n">
-        <v>0.395</v>
+        <v>0.4</v>
       </c>
       <c r="I588" t="n">
-        <v>310000</v>
+        <v>177000</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -20994,16 +20994,16 @@
         <v>0.39</v>
       </c>
       <c r="I589" t="n">
-        <v>509000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -21017,28 +21017,28 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="F590" t="n">
-        <v>0.395</v>
+        <v>0.41</v>
       </c>
       <c r="G590" t="n">
         <v>0.39</v>
       </c>
       <c r="H590" t="n">
-        <v>0.39</v>
+        <v>0.395</v>
       </c>
       <c r="I590" t="n">
-        <v>533500</v>
+        <v>93000</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -21052,28 +21052,28 @@
         </is>
       </c>
       <c r="E591" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F591" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G591" t="n">
         <v>0.39</v>
-      </c>
-      <c r="F591" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="G591" t="n">
-        <v>0.385</v>
       </c>
       <c r="H591" t="n">
         <v>0.39</v>
       </c>
       <c r="I591" t="n">
-        <v>293300</v>
+        <v>299300</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -21099,16 +21099,16 @@
         <v>0.39</v>
       </c>
       <c r="I592" t="n">
-        <v>177500</v>
+        <v>124200</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -21122,28 +21122,28 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>0.385</v>
+        <v>0.395</v>
       </c>
       <c r="F593" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G593" t="n">
         <v>0.39</v>
       </c>
-      <c r="G593" t="n">
-        <v>0.38</v>
-      </c>
       <c r="H593" t="n">
-        <v>0.385</v>
+        <v>0.39</v>
       </c>
       <c r="I593" t="n">
-        <v>401500</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -21157,28 +21157,28 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>0.395</v>
+        <v>0.39</v>
       </c>
       <c r="F594" t="n">
         <v>0.4</v>
       </c>
       <c r="G594" t="n">
-        <v>0.385</v>
+        <v>0.39</v>
       </c>
       <c r="H594" t="n">
-        <v>0.39</v>
+        <v>0.395</v>
       </c>
       <c r="I594" t="n">
-        <v>1114800</v>
+        <v>135600</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -21192,28 +21192,28 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>0.39</v>
+        <v>0.395</v>
       </c>
       <c r="F595" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="G595" t="n">
-        <v>0.385</v>
+        <v>0.395</v>
       </c>
       <c r="H595" t="n">
-        <v>0.39</v>
+        <v>0.405</v>
       </c>
       <c r="I595" t="n">
-        <v>318300</v>
+        <v>699200</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -21227,28 +21227,28 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>0.39</v>
+        <v>0.405</v>
       </c>
       <c r="F596" t="n">
-        <v>0.39</v>
+        <v>0.405</v>
       </c>
       <c r="G596" t="n">
-        <v>0.385</v>
+        <v>0.395</v>
       </c>
       <c r="H596" t="n">
-        <v>0.385</v>
+        <v>0.4</v>
       </c>
       <c r="I596" t="n">
-        <v>211300</v>
+        <v>103900</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -21262,28 +21262,28 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>0.385</v>
+        <v>0.395</v>
       </c>
       <c r="F597" t="n">
-        <v>0.385</v>
+        <v>0.395</v>
       </c>
       <c r="G597" t="n">
-        <v>0.385</v>
+        <v>0.39</v>
       </c>
       <c r="H597" t="n">
-        <v>0.385</v>
+        <v>0.395</v>
       </c>
       <c r="I597" t="n">
-        <v>214500</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -21297,28 +21297,28 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>0.385</v>
+        <v>0.39</v>
       </c>
       <c r="F598" t="n">
-        <v>0.385</v>
+        <v>0.39</v>
       </c>
       <c r="G598" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="H598" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="I598" t="n">
-        <v>214200</v>
+        <v>509000</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -21332,28 +21332,28 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>0.38</v>
+        <v>0.395</v>
       </c>
       <c r="F599" t="n">
         <v>0.395</v>
       </c>
       <c r="G599" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="H599" t="n">
-        <v>0.385</v>
+        <v>0.39</v>
       </c>
       <c r="I599" t="n">
-        <v>554500</v>
+        <v>533500</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -21367,28 +21367,28 @@
         </is>
       </c>
       <c r="E600" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F600" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G600" t="n">
         <v>0.385</v>
       </c>
-      <c r="F600" t="n">
-        <v>0.385</v>
-      </c>
-      <c r="G600" t="n">
-        <v>0.375</v>
-      </c>
       <c r="H600" t="n">
-        <v>0.375</v>
+        <v>0.39</v>
       </c>
       <c r="I600" t="n">
-        <v>462400</v>
+        <v>293300</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -21402,28 +21402,28 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>0.375</v>
+        <v>0.39</v>
       </c>
       <c r="F601" t="n">
-        <v>0.385</v>
+        <v>0.39</v>
       </c>
       <c r="G601" t="n">
-        <v>0.375</v>
+        <v>0.39</v>
       </c>
       <c r="H601" t="n">
-        <v>0.375</v>
+        <v>0.39</v>
       </c>
       <c r="I601" t="n">
-        <v>272600</v>
+        <v>177500</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -21437,28 +21437,28 @@
         </is>
       </c>
       <c r="E602" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F602" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G602" t="n">
         <v>0.38</v>
       </c>
-      <c r="F602" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="G602" t="n">
-        <v>0.365</v>
-      </c>
       <c r="H602" t="n">
-        <v>0.37</v>
+        <v>0.385</v>
       </c>
       <c r="I602" t="n">
-        <v>717000</v>
+        <v>401500</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -21472,28 +21472,28 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>0.37</v>
+        <v>0.395</v>
       </c>
       <c r="F603" t="n">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="G603" t="n">
-        <v>0.37</v>
+        <v>0.385</v>
       </c>
       <c r="H603" t="n">
-        <v>0.375</v>
+        <v>0.39</v>
       </c>
       <c r="I603" t="n">
-        <v>56900</v>
+        <v>1114800</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -21507,28 +21507,28 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="F604" t="n">
-        <v>0.375</v>
+        <v>0.39</v>
       </c>
       <c r="G604" t="n">
-        <v>0.37</v>
+        <v>0.385</v>
       </c>
       <c r="H604" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="I604" t="n">
-        <v>66300</v>
+        <v>318300</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -21542,28 +21542,28 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>0.375</v>
+        <v>0.39</v>
       </c>
       <c r="F605" t="n">
-        <v>0.375</v>
+        <v>0.39</v>
       </c>
       <c r="G605" t="n">
-        <v>0.37</v>
+        <v>0.385</v>
       </c>
       <c r="H605" t="n">
-        <v>0.37</v>
+        <v>0.385</v>
       </c>
       <c r="I605" t="n">
-        <v>209000</v>
+        <v>211300</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -21577,28 +21577,28 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>0.37</v>
+        <v>0.385</v>
       </c>
       <c r="F606" t="n">
-        <v>0.375</v>
+        <v>0.385</v>
       </c>
       <c r="G606" t="n">
-        <v>0.37</v>
+        <v>0.385</v>
       </c>
       <c r="H606" t="n">
-        <v>0.375</v>
+        <v>0.385</v>
       </c>
       <c r="I606" t="n">
-        <v>283600</v>
+        <v>214500</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -21612,28 +21612,28 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>0.375</v>
+        <v>0.385</v>
       </c>
       <c r="F607" t="n">
-        <v>0.375</v>
+        <v>0.385</v>
       </c>
       <c r="G607" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="H607" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="I607" t="n">
-        <v>276000</v>
+        <v>214200</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -21647,28 +21647,28 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="F608" t="n">
-        <v>0.37</v>
+        <v>0.395</v>
       </c>
       <c r="G608" t="n">
-        <v>0.365</v>
+        <v>0.38</v>
       </c>
       <c r="H608" t="n">
-        <v>0.37</v>
+        <v>0.385</v>
       </c>
       <c r="I608" t="n">
-        <v>238700</v>
+        <v>554500</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -21682,28 +21682,28 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>0.37</v>
+        <v>0.385</v>
       </c>
       <c r="F609" t="n">
-        <v>0.37</v>
+        <v>0.385</v>
       </c>
       <c r="G609" t="n">
-        <v>0.365</v>
+        <v>0.375</v>
       </c>
       <c r="H609" t="n">
-        <v>0.37</v>
+        <v>0.375</v>
       </c>
       <c r="I609" t="n">
-        <v>190400</v>
+        <v>462400</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -21720,7 +21720,7 @@
         <v>0.375</v>
       </c>
       <c r="F610" t="n">
-        <v>0.38</v>
+        <v>0.385</v>
       </c>
       <c r="G610" t="n">
         <v>0.375</v>
@@ -21729,16 +21729,16 @@
         <v>0.375</v>
       </c>
       <c r="I610" t="n">
-        <v>176900</v>
+        <v>272600</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -21752,28 +21752,28 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="F611" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="G611" t="n">
-        <v>0.37</v>
+        <v>0.365</v>
       </c>
       <c r="H611" t="n">
         <v>0.37</v>
       </c>
       <c r="I611" t="n">
-        <v>123000</v>
+        <v>717000</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21790,25 +21790,25 @@
         <v>0.37</v>
       </c>
       <c r="F612" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G612" t="n">
         <v>0.37</v>
       </c>
-      <c r="G612" t="n">
-        <v>0.365</v>
-      </c>
       <c r="H612" t="n">
-        <v>0.37</v>
+        <v>0.375</v>
       </c>
       <c r="I612" t="n">
-        <v>137000</v>
+        <v>56900</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21822,28 +21822,28 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>0.365</v>
+        <v>0.37</v>
       </c>
       <c r="F613" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G613" t="n">
         <v>0.37</v>
-      </c>
-      <c r="G613" t="n">
-        <v>0.365</v>
       </c>
       <c r="H613" t="n">
         <v>0.37</v>
       </c>
       <c r="I613" t="n">
-        <v>311000</v>
+        <v>66300</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -21857,10 +21857,10 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>0.37</v>
+        <v>0.375</v>
       </c>
       <c r="F614" t="n">
-        <v>0.37</v>
+        <v>0.375</v>
       </c>
       <c r="G614" t="n">
         <v>0.37</v>
@@ -21869,16 +21869,16 @@
         <v>0.37</v>
       </c>
       <c r="I614" t="n">
-        <v>1300</v>
+        <v>209000</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -21892,28 +21892,28 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>0.365</v>
+        <v>0.37</v>
       </c>
       <c r="F615" t="n">
-        <v>0.365</v>
+        <v>0.375</v>
       </c>
       <c r="G615" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="H615" t="n">
-        <v>0.355</v>
+        <v>0.375</v>
       </c>
       <c r="I615" t="n">
-        <v>218900</v>
+        <v>283600</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -21927,28 +21927,28 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>0.36</v>
+        <v>0.375</v>
       </c>
       <c r="F616" t="n">
-        <v>0.36</v>
+        <v>0.375</v>
       </c>
       <c r="G616" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="H616" t="n">
-        <v>0.355</v>
+        <v>0.37</v>
       </c>
       <c r="I616" t="n">
-        <v>138200</v>
+        <v>276000</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -21962,28 +21962,28 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>0.355</v>
+        <v>0.37</v>
       </c>
       <c r="F617" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="G617" t="n">
-        <v>0.355</v>
+        <v>0.365</v>
       </c>
       <c r="H617" t="n">
-        <v>0.355</v>
+        <v>0.37</v>
       </c>
       <c r="I617" t="n">
-        <v>147000</v>
+        <v>238700</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -21997,28 +21997,28 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>0.355</v>
+        <v>0.37</v>
       </c>
       <c r="F618" t="n">
-        <v>0.355</v>
+        <v>0.37</v>
       </c>
       <c r="G618" t="n">
-        <v>0.34</v>
+        <v>0.365</v>
       </c>
       <c r="H618" t="n">
-        <v>0.345</v>
+        <v>0.37</v>
       </c>
       <c r="I618" t="n">
-        <v>578600</v>
+        <v>190400</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -22032,28 +22032,28 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>0.34</v>
+        <v>0.375</v>
       </c>
       <c r="F619" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="G619" t="n">
-        <v>0.33</v>
+        <v>0.375</v>
       </c>
       <c r="H619" t="n">
-        <v>0.335</v>
+        <v>0.375</v>
       </c>
       <c r="I619" t="n">
-        <v>350400</v>
+        <v>176900</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -22067,28 +22067,28 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>0.335</v>
+        <v>0.37</v>
       </c>
       <c r="F620" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="G620" t="n">
-        <v>0.335</v>
+        <v>0.37</v>
       </c>
       <c r="H620" t="n">
-        <v>0.345</v>
+        <v>0.37</v>
       </c>
       <c r="I620" t="n">
-        <v>90000</v>
+        <v>123000</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -22102,28 +22102,28 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>0.345</v>
+        <v>0.37</v>
       </c>
       <c r="F621" t="n">
-        <v>0.345</v>
+        <v>0.37</v>
       </c>
       <c r="G621" t="n">
-        <v>0.34</v>
+        <v>0.365</v>
       </c>
       <c r="H621" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="I621" t="n">
-        <v>138300</v>
+        <v>137000</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -22137,28 +22137,28 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>0.34</v>
+        <v>0.365</v>
       </c>
       <c r="F622" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G622" t="n">
         <v>0.365</v>
       </c>
-      <c r="G622" t="n">
-        <v>0.34</v>
-      </c>
       <c r="H622" t="n">
-        <v>0.365</v>
+        <v>0.37</v>
       </c>
       <c r="I622" t="n">
-        <v>125100</v>
+        <v>311000</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -22172,28 +22172,28 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="F623" t="n">
-        <v>0.355</v>
+        <v>0.37</v>
       </c>
       <c r="G623" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="H623" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="I623" t="n">
-        <v>132900</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -22207,28 +22207,28 @@
         </is>
       </c>
       <c r="E624" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F624" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G624" t="n">
         <v>0.35</v>
       </c>
-      <c r="F624" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G624" t="n">
-        <v>0.345</v>
-      </c>
       <c r="H624" t="n">
-        <v>0.345</v>
+        <v>0.355</v>
       </c>
       <c r="I624" t="n">
-        <v>94500</v>
+        <v>218900</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -22242,28 +22242,28 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>0.345</v>
+        <v>0.36</v>
       </c>
       <c r="F625" t="n">
-        <v>0.345</v>
+        <v>0.36</v>
       </c>
       <c r="G625" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="H625" t="n">
-        <v>0.34</v>
+        <v>0.355</v>
       </c>
       <c r="I625" t="n">
-        <v>111700</v>
+        <v>138200</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -22277,28 +22277,28 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>0.345</v>
+        <v>0.355</v>
       </c>
       <c r="F626" t="n">
-        <v>0.345</v>
+        <v>0.36</v>
       </c>
       <c r="G626" t="n">
-        <v>0.335</v>
+        <v>0.355</v>
       </c>
       <c r="H626" t="n">
-        <v>0.335</v>
+        <v>0.355</v>
       </c>
       <c r="I626" t="n">
-        <v>32000</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -22312,28 +22312,28 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>0.335</v>
+        <v>0.355</v>
       </c>
       <c r="F627" t="n">
-        <v>0.365</v>
+        <v>0.355</v>
       </c>
       <c r="G627" t="n">
-        <v>0.335</v>
+        <v>0.34</v>
       </c>
       <c r="H627" t="n">
-        <v>0.365</v>
+        <v>0.345</v>
       </c>
       <c r="I627" t="n">
-        <v>1093400</v>
+        <v>578600</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -22347,28 +22347,28 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="F628" t="n">
-        <v>0.365</v>
+        <v>0.34</v>
       </c>
       <c r="G628" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="H628" t="n">
-        <v>0.36</v>
+        <v>0.335</v>
       </c>
       <c r="I628" t="n">
-        <v>487400</v>
+        <v>350400</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -22382,28 +22382,28 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>0.36</v>
+        <v>0.335</v>
       </c>
       <c r="F629" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="G629" t="n">
-        <v>0.35</v>
+        <v>0.335</v>
       </c>
       <c r="H629" t="n">
-        <v>0.35</v>
+        <v>0.345</v>
       </c>
       <c r="I629" t="n">
-        <v>135000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -22417,28 +22417,28 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>0.35</v>
+        <v>0.345</v>
       </c>
       <c r="F630" t="n">
-        <v>0.35</v>
+        <v>0.345</v>
       </c>
       <c r="G630" t="n">
-        <v>0.345</v>
+        <v>0.34</v>
       </c>
       <c r="H630" t="n">
-        <v>0.345</v>
+        <v>0.34</v>
       </c>
       <c r="I630" t="n">
-        <v>161600</v>
+        <v>138300</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -22452,28 +22452,28 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>0.345</v>
+        <v>0.34</v>
       </c>
       <c r="F631" t="n">
-        <v>0.38</v>
+        <v>0.365</v>
       </c>
       <c r="G631" t="n">
-        <v>0.345</v>
+        <v>0.34</v>
       </c>
       <c r="H631" t="n">
-        <v>0.37</v>
+        <v>0.365</v>
       </c>
       <c r="I631" t="n">
-        <v>1354000</v>
+        <v>125100</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -22487,28 +22487,28 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="F632" t="n">
-        <v>0.38</v>
+        <v>0.355</v>
       </c>
       <c r="G632" t="n">
-        <v>0.365</v>
+        <v>0.35</v>
       </c>
       <c r="H632" t="n">
-        <v>0.365</v>
+        <v>0.35</v>
       </c>
       <c r="I632" t="n">
-        <v>560700</v>
+        <v>132900</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -22522,28 +22522,28 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>0.365</v>
+        <v>0.35</v>
       </c>
       <c r="F633" t="n">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="G633" t="n">
-        <v>0.365</v>
+        <v>0.345</v>
       </c>
       <c r="H633" t="n">
-        <v>0.37</v>
+        <v>0.345</v>
       </c>
       <c r="I633" t="n">
-        <v>349000</v>
+        <v>94500</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -22557,28 +22557,28 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>0.35</v>
+        <v>0.345</v>
       </c>
       <c r="F634" t="n">
-        <v>0.355</v>
+        <v>0.345</v>
       </c>
       <c r="G634" t="n">
-        <v>0.345</v>
+        <v>0.34</v>
       </c>
       <c r="H634" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="I634" t="n">
-        <v>679600</v>
+        <v>111700</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -22595,25 +22595,25 @@
         <v>0.345</v>
       </c>
       <c r="F635" t="n">
-        <v>0.355</v>
+        <v>0.345</v>
       </c>
       <c r="G635" t="n">
-        <v>0.34</v>
+        <v>0.335</v>
       </c>
       <c r="H635" t="n">
-        <v>0.35</v>
+        <v>0.335</v>
       </c>
       <c r="I635" t="n">
-        <v>368300</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -22627,28 +22627,28 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>0.355</v>
+        <v>0.335</v>
       </c>
       <c r="F636" t="n">
-        <v>0.355</v>
+        <v>0.365</v>
       </c>
       <c r="G636" t="n">
-        <v>0.345</v>
+        <v>0.335</v>
       </c>
       <c r="H636" t="n">
-        <v>0.345</v>
+        <v>0.365</v>
       </c>
       <c r="I636" t="n">
-        <v>124200</v>
+        <v>1093400</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -22662,28 +22662,28 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>0.355</v>
+        <v>0.36</v>
       </c>
       <c r="F637" t="n">
-        <v>0.355</v>
+        <v>0.365</v>
       </c>
       <c r="G637" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="H637" t="n">
-        <v>0.355</v>
+        <v>0.36</v>
       </c>
       <c r="I637" t="n">
-        <v>163500</v>
+        <v>487400</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22697,28 +22697,28 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>0.345</v>
+        <v>0.36</v>
       </c>
       <c r="F638" t="n">
-        <v>0.345</v>
+        <v>0.36</v>
       </c>
       <c r="G638" t="n">
-        <v>0.325</v>
+        <v>0.35</v>
       </c>
       <c r="H638" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="I638" t="n">
-        <v>298600</v>
+        <v>135000</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22732,28 +22732,28 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="F639" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="G639" t="n">
-        <v>0.32</v>
+        <v>0.345</v>
       </c>
       <c r="H639" t="n">
-        <v>0.32</v>
+        <v>0.345</v>
       </c>
       <c r="I639" t="n">
-        <v>743000</v>
+        <v>161600</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -22767,28 +22767,28 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>0.325</v>
+        <v>0.345</v>
       </c>
       <c r="F640" t="n">
-        <v>0.325</v>
+        <v>0.38</v>
       </c>
       <c r="G640" t="n">
-        <v>0.32</v>
+        <v>0.345</v>
       </c>
       <c r="H640" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="I640" t="n">
-        <v>175000</v>
+        <v>1354000</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -22802,28 +22802,28 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>0.32</v>
+        <v>0.375</v>
       </c>
       <c r="F641" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="G641" t="n">
-        <v>0.315</v>
+        <v>0.365</v>
       </c>
       <c r="H641" t="n">
-        <v>0.32</v>
+        <v>0.365</v>
       </c>
       <c r="I641" t="n">
-        <v>160400</v>
+        <v>560700</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -22837,28 +22837,28 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>0.32</v>
+        <v>0.365</v>
       </c>
       <c r="F642" t="n">
-        <v>0.325</v>
+        <v>0.375</v>
       </c>
       <c r="G642" t="n">
-        <v>0.32</v>
+        <v>0.365</v>
       </c>
       <c r="H642" t="n">
-        <v>0.325</v>
+        <v>0.37</v>
       </c>
       <c r="I642" t="n">
-        <v>19000</v>
+        <v>349000</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -22872,28 +22872,28 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>0.325</v>
+        <v>0.35</v>
       </c>
       <c r="F643" t="n">
-        <v>0.33</v>
+        <v>0.355</v>
       </c>
       <c r="G643" t="n">
-        <v>0.325</v>
+        <v>0.345</v>
       </c>
       <c r="H643" t="n">
-        <v>0.325</v>
+        <v>0.35</v>
       </c>
       <c r="I643" t="n">
-        <v>362200</v>
+        <v>679600</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -22907,28 +22907,28 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>0.32</v>
+        <v>0.345</v>
       </c>
       <c r="F644" t="n">
-        <v>0.325</v>
+        <v>0.355</v>
       </c>
       <c r="G644" t="n">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="H644" t="n">
-        <v>0.295</v>
+        <v>0.35</v>
       </c>
       <c r="I644" t="n">
-        <v>975100</v>
+        <v>368300</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22942,28 +22942,28 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>0.28</v>
+        <v>0.355</v>
       </c>
       <c r="F645" t="n">
-        <v>0.295</v>
+        <v>0.355</v>
       </c>
       <c r="G645" t="n">
-        <v>0.28</v>
+        <v>0.345</v>
       </c>
       <c r="H645" t="n">
-        <v>0.295</v>
+        <v>0.345</v>
       </c>
       <c r="I645" t="n">
-        <v>474900</v>
+        <v>124200</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -22977,28 +22977,28 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>0.295</v>
+        <v>0.355</v>
       </c>
       <c r="F646" t="n">
-        <v>0.31</v>
+        <v>0.355</v>
       </c>
       <c r="G646" t="n">
-        <v>0.295</v>
+        <v>0.33</v>
       </c>
       <c r="H646" t="n">
-        <v>0.31</v>
+        <v>0.355</v>
       </c>
       <c r="I646" t="n">
-        <v>149200</v>
+        <v>163500</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -23012,53 +23012,368 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>0.315</v>
+        <v>0.345</v>
       </c>
       <c r="F647" t="n">
-        <v>0.315</v>
+        <v>0.345</v>
       </c>
       <c r="G647" t="n">
-        <v>0.29</v>
+        <v>0.325</v>
       </c>
       <c r="H647" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="I647" t="n">
-        <v>418600</v>
+        <v>298600</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E648" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F648" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G648" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I648" t="n">
+        <v>743000</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E649" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F649" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G649" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I649" t="n">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E650" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F650" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G650" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H650" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I650" t="n">
+        <v>160400</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E651" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F651" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G651" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H651" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I651" t="n">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E652" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F652" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G652" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I652" t="n">
+        <v>362200</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E653" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F653" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G653" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H653" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I653" t="n">
+        <v>975100</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E654" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F654" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G654" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I654" t="n">
+        <v>474900</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E655" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F655" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G655" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I655" t="n">
+        <v>149200</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E656" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F656" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G656" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I656" t="n">
+        <v>418600</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B648" t="inlineStr">
+      <c r="B657" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C648" t="inlineStr">
-        <is>
-          <t>5281</t>
-        </is>
-      </c>
-      <c r="D648" t="inlineStr">
-        <is>
-          <t>ADVCON</t>
-        </is>
-      </c>
-      <c r="E648" t="n">
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E657" t="n">
         <v>0.28</v>
       </c>
-      <c r="F648" t="n">
+      <c r="F657" t="n">
         <v>0.29</v>
       </c>
-      <c r="G648" t="n">
+      <c r="G657" t="n">
         <v>0.27</v>
       </c>
-      <c r="H648" t="n">
+      <c r="H657" t="n">
         <v>0.28</v>
       </c>
-      <c r="I648" t="n">
+      <c r="I657" t="n">
         <v>432200</v>
       </c>
     </row>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I657"/>
+  <dimension ref="A1:I658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23377,6 +23377,41 @@
         <v>432200</v>
       </c>
     </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E658" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F658" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G658" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H658" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I658" t="n">
+        <v>1100700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I658"/>
+  <dimension ref="A1:I659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23412,6 +23412,41 @@
         <v>1100700</v>
       </c>
     </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E659" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F659" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G659" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H659" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I659" t="n">
+        <v>683600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I659"/>
+  <dimension ref="A1:I660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23447,6 +23447,41 @@
         <v>683600</v>
       </c>
     </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E660" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F660" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G660" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H660" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I660" t="n">
+        <v>844600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I660"/>
+  <dimension ref="A1:I661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23482,6 +23482,41 @@
         <v>844600</v>
       </c>
     </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E661" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F661" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G661" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H661" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I661" t="n">
+        <v>702200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I661"/>
+  <dimension ref="A1:I662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23517,6 +23517,41 @@
         <v>702200</v>
       </c>
     </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E662" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F662" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G662" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H662" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I662" t="n">
+        <v>297900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I662"/>
+  <dimension ref="A1:I663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23552,6 +23552,41 @@
         <v>297900</v>
       </c>
     </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E663" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F663" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G663" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H663" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I663" t="n">
+        <v>277000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I663"/>
+  <dimension ref="A1:I664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23587,6 +23587,41 @@
         <v>277000</v>
       </c>
     </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E664" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F664" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G664" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H664" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I664" t="n">
+        <v>312700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I664"/>
+  <dimension ref="A1:I665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23622,6 +23622,41 @@
         <v>312700</v>
       </c>
     </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E665" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F665" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G665" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H665" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I665" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I665"/>
+  <dimension ref="A1:I666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23657,6 +23657,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E666" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F666" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G666" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H666" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I666" t="n">
+        <v>233400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I666"/>
+  <dimension ref="A1:I667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23692,6 +23692,41 @@
         <v>233400</v>
       </c>
     </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E667" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F667" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G667" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H667" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I667" t="n">
+        <v>329500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I667"/>
+  <dimension ref="A1:I668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23727,6 +23727,41 @@
         <v>329500</v>
       </c>
     </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E668" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F668" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G668" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H668" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I668" t="n">
+        <v>98000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I668"/>
+  <dimension ref="A1:I669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23762,6 +23762,41 @@
         <v>98000</v>
       </c>
     </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E669" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F669" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G669" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H669" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I669" t="n">
+        <v>106100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I669"/>
+  <dimension ref="A1:I670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23797,6 +23797,41 @@
         <v>106100</v>
       </c>
     </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E670" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F670" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G670" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H670" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I670" t="n">
+        <v>130900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I670"/>
+  <dimension ref="A1:I671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23832,6 +23832,41 @@
         <v>130900</v>
       </c>
     </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E671" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F671" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G671" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H671" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I671" t="n">
+        <v>304900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I671"/>
+  <dimension ref="A1:I672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23867,6 +23867,41 @@
         <v>304900</v>
       </c>
     </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E672" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F672" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G672" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H672" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I672" t="n">
+        <v>201400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I672"/>
+  <dimension ref="A1:I673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23902,6 +23902,41 @@
         <v>201400</v>
       </c>
     </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E673" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F673" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G673" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H673" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I673" t="n">
+        <v>435300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I673"/>
+  <dimension ref="A1:I674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23937,6 +23937,41 @@
         <v>435300</v>
       </c>
     </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E674" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F674" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G674" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I674" t="n">
+        <v>806700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I674"/>
+  <dimension ref="A1:I675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23972,6 +23972,41 @@
         <v>806700</v>
       </c>
     </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E675" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F675" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G675" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H675" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I675" t="n">
+        <v>2127700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I675"/>
+  <dimension ref="A1:I676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24007,6 +24007,41 @@
         <v>2127700</v>
       </c>
     </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E676" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F676" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G676" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H676" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I676" t="n">
+        <v>637400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I676"/>
+  <dimension ref="A1:I677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24042,6 +24042,41 @@
         <v>637400</v>
       </c>
     </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E677" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F677" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G677" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I677" t="n">
+        <v>447400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I677"/>
+  <dimension ref="A1:I678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24077,6 +24077,41 @@
         <v>447400</v>
       </c>
     </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E678" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F678" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G678" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H678" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I678" t="n">
+        <v>459600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I678"/>
+  <dimension ref="A1:I679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24112,6 +24112,41 @@
         <v>459600</v>
       </c>
     </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E679" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F679" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G679" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H679" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I679" t="n">
+        <v>247900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I679"/>
+  <dimension ref="A1:I680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24147,6 +24147,41 @@
         <v>247900</v>
       </c>
     </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E680" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F680" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G680" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I680" t="n">
+        <v>224400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I680"/>
+  <dimension ref="A1:I681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24182,6 +24182,41 @@
         <v>224400</v>
       </c>
     </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E681" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F681" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G681" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I681" t="n">
+        <v>132500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I681"/>
+  <dimension ref="A1:I682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24217,6 +24217,41 @@
         <v>132500</v>
       </c>
     </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E682" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F682" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G682" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I682" t="n">
+        <v>775000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I682"/>
+  <dimension ref="A1:I684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24252,6 +24252,76 @@
         <v>775000</v>
       </c>
     </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E683" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F683" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G683" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H683" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I683" t="n">
+        <v>405700</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E684" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F684" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G684" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H684" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I684" t="n">
+        <v>391400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I684"/>
+  <dimension ref="A1:I685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24322,6 +24322,41 @@
         <v>391400</v>
       </c>
     </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E685" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F685" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G685" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H685" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I685" t="n">
+        <v>467200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I685"/>
+  <dimension ref="A1:I688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24357,6 +24357,111 @@
         <v>467200</v>
       </c>
     </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E686" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F686" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G686" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I686" t="n">
+        <v>275900</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E687" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F687" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G687" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H687" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I687" t="n">
+        <v>468700</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E688" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F688" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G688" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I688" t="n">
+        <v>375300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I688"/>
+  <dimension ref="A1:I689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24462,6 +24462,41 @@
         <v>375300</v>
       </c>
     </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E689" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F689" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G689" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H689" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I689" t="n">
+        <v>380300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I689"/>
+  <dimension ref="A1:I690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24497,6 +24497,41 @@
         <v>380300</v>
       </c>
     </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E690" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F690" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G690" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I690" t="n">
+        <v>3239500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5281.xlsx
+++ b/data/5281.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I690"/>
+  <dimension ref="A1:I693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24532,6 +24532,111 @@
         <v>3239500</v>
       </c>
     </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E691" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F691" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G691" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I691" t="n">
+        <v>535500</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E692" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F692" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G692" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I692" t="n">
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>5281</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>ADVCON</t>
+        </is>
+      </c>
+      <c r="E693" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F693" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G693" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I693" t="n">
+        <v>1536100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
